--- a/biology/Botanique/Arbre_à_Poste/Arbre_à_Poste.xlsx
+++ b/biology/Botanique/Arbre_à_Poste/Arbre_à_Poste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_Poste</t>
+          <t>Arbre_à_Poste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' arbre à poste (Poskantoorboom en afrikaans et post office tree en anglais) est un spécimen de Sideroxylon inerme situé à Mossel Bay en Afrique du Sud qui a été utilisé par les premiers explorateurs portugais comme bureau de poste. Il est situé dans l'enceinte du complexe du musée Bartholomeu Dias (en) à Market Street à 330 km à l'est du cap de Bonne Espérance.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_Poste</t>
+          <t>Arbre_à_Poste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1501, le navigateur portugais Pêro de Ataíde (en) a trouvé refuge à Mossel Bay après avoir perdu une grande partie de sa flotte dans une tempête au cap de Bonne-Espérance, nommé « cap des tempêtes » par les navigateurs. Il a laissé un compte-rendu du désastre caché dans une vieille chaussure qu'il a suspendue à un arbre près de la source de laquelle l'explorateur Bartolomeu Dias avait puisé de l'eau. Le rapport a été trouvé par l'explorateur à qui il était adressé, João da Nova, et l'arbre a servi de bureau de poste de facto pendant des décennies par la suite. João da Nova a érigé un petit sanctuaire près de l'arbre à poste, et bien qu'il n'en reste aucune trace, il est considéré comme le premier lieu de culte chrétien en Afrique du Sud. 
 Une boîte aux lettres en forme de botte a été érigée sous l'arbre, et les lettres qui y sont postées sont affranchies d'un timbre commémoratif.
